--- a/Attacks/resultadosImputação.xlsx
+++ b/Attacks/resultadosImputação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mult-e\Desktop\@Codigos\MestradoCodigos\AdvML\Attacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15534B19-0270-4E0E-A195-3A0E7458633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D3246F-289D-492F-A588-C31D452F7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="855" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_MAR" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,40 @@
     <sheet name="poison_MNAR" sheetId="6" r:id="rId6"/>
     <sheet name="Planilha1" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="2097">
   <si>
     <t>Dataset</t>
   </si>
@@ -6324,6 +6358,15 @@
   </si>
   <si>
     <t>SOFTIMPITE</t>
+  </si>
+  <si>
+    <t>Resultados para os testes de data distribution: Kimogorov</t>
+  </si>
+  <si>
+    <t>Resultados para os testes de data distribution: Chi square</t>
+  </si>
+  <si>
+    <t>Imputation Method</t>
   </si>
 </sst>
 </file>
@@ -6378,7 +6421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -6447,12 +6490,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6498,28 +6576,23 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6531,21 +6604,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6587,6 +6674,1190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_gain_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.16126181461019273</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.17413182320746889</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.1732012999460581</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.17636792302489629</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_mice_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.80846269780932756</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.8838959358971189</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.87597330798353878</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.87040665917283933</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_mice_MAR-correl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.15158490814325051</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.1381472965435685</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.13994520698340251</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14072844614522823</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_mice_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.1452143700509641</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.13877949698755199</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.1405347754688798</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14169865431120343</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_softimpute_MAR-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.75913010158161831</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.7677312183251026</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.764479108786008</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.76320240595061695</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_softimpute_MNAR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.73918884994238687</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.75581533086008224</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.75324530745267471</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.75089460733333313</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_softimpute_MAR-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.13308883053443518</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.12214895563070541</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.12362849113278009</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.12438208683402491</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_softimpute_MNAR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.12890508114462795</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.12184630840248968</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.12284119667219921</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.12353885219917017</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_gain_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.76666859939798837</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.86685229886707893</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.86336425795916638</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.85625331319998921</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_gain_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.69011100485307031</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.84405500384726406</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.83536887748863742</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.82763420242828611</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_gain_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.17309274514516931</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.17670164905169594</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.17578590138710759</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.17874416142235811</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_gain_MAR-correl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.19017876235537179</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.19221229510788376</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.19067106946473025</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.19350009189626557</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_gain_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.16706760966801928</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.17196866683844128</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.17103814357459185</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.17390966609666109</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_knn_MAR-correlat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.86866549068313126</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.89377923330454467</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.89164819380682769</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.89049207590192014</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_knn_MNAR-determi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.75545853389956252</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.8857391597247799</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.87725010321678809</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.87093971165916317</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_knn_MAR-correlat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.15354956391578109</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.15882880235424851</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15820639571524439</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.1593492329090089</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_knn_MNAR-determi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.14644455977371298</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.1572457207733598</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15706208547631534</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.15851478994296217</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_mice_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.8667129646293128</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.89437541176260371</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.8927445822805683</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.89169718057222425</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_mice_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.82951253016371496</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.89168089249574889</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.88296336773423967</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.87809218831467106</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_mice_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.1597154276275882</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.16018425063193484</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15956184399293066</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.16076944282505551</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_mice_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.15073587721988166</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.15773797619641633</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.1574067938234392</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.15885485125772056</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_softimpute_MAR-c"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.76150233791490396</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.78056206975573206</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.7781904553978326</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.7802045992486627</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_gain_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.7715291646584358</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.83029524495473284</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.82856499909876558</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.8286528173662554</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_softimpute_MNAR-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.7516491245038579</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.77261396826308959</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.7663435757070689</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.76461644833781939</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_softimpute_MAR-c"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.12994959475053555</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.12876528219892244</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.12833074686978332</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.12886776620669899</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_softimpute_MNAR-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.1296844147080243</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.12469749556032156</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.12515911317562298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.12580456978188226</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_gain_MAR-correl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.73455277665564733</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.82775163934710716</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.82270300214462766</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.81641490791735494</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_knn_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.87201938541015123</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.89355737506584432</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.89197615546090603</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.89070917326749033</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_knn_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.71300157706310008</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.88338770773662545</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.87331297303703714</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.86671814773662548</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_knn_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.14463646187052326</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.138816140307054</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.14033948542323654</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14095563156846475</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_knn_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.14077607944490339</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.13811238278008309</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.13920739155186732</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14012663252697105</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_evasion_mice_MAR-correl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.8611514598010972</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.88983653238271609</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.8875726269670785</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.88621973266666698</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14453,19 +15724,19 @@
         <f>baseline_MAR!N7-evasion_MAR!N7</f>
         <v>-7.0000000000000062E-3</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA7" s="19" t="s">
         <v>2093</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14528,22 +15799,22 @@
         <f>baseline_MAR!N8-evasion_MAR!N8</f>
         <v>-2.5999999999999968E-2</v>
       </c>
-      <c r="X8" s="22">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="20">
+      <c r="X8" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="1">
         <f>AVERAGE(K2,K5,K8,K11,K14,K17,K20,K23,K26,K29,K32,K35,K38,K41,K44,K47,K50,K53,K56,K62,K65,K68,K71,K74,K77,K80,K86,K83)</f>
         <v>0.25499999999999995</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="1">
         <f>AVERAGE(L2,L5,L8,L11,L14,L17,L20,L23,L26,L29,L32,L35,L38,L41,L44,L47,L50,L53,L56,L62,L65,L68,L71,L74,L77,L80,L86,L83)</f>
         <v>0.26903571428571432</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="1">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17,M20,M23,M26,M29,M32,M35,M38,M41,M44,M47,M50,M53,M56,M62,M65,M68,M71,M74,M77,M80,M86,M83)</f>
         <v>0.28657142857142853</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="1">
         <f>AVERAGE(N2,N5,N8,N11,N14,N17,N20,N23,N26,N29,N32,N35,N38,N41,N44,N47,N50,N53,N56,N62,N65,N68,N71,N74,N77,N80,N86,N83)</f>
         <v>0.44303571428571431</v>
       </c>
@@ -14607,22 +15878,22 @@
         <f>baseline_MAR!N9-evasion_MAR!N9</f>
         <v>-2.6000000000000023E-2</v>
       </c>
-      <c r="X9" s="22">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="20">
+      <c r="X9" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" ref="Y9:Y10" si="1">AVERAGE(K3,K6,K9,K12,K15,K18,K21,K24,K27,K30,K33,K36,K39,K42,K45,K48,K51,K54,K57,K63,K66,K69,K72,K75,K78,K81,K87,K84)</f>
         <v>0.28667857142857139</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="1">
         <f t="shared" ref="Z9:Z10" si="2">AVERAGE(L3,L6,L9,L12,L15,L18,L21,L24,L27,L30,L33,L36,L39,L42,L45,L48,L51,L54,L57,L63,L66,L69,L72,L75,L78,L81,L87,L84)</f>
         <v>0.30096428571428568</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="1">
         <f t="shared" ref="AA9:AA10" si="3">AVERAGE(M3,M6,M9,M12,M15,M18,M21,M24,M27,M30,M33,M36,M39,M42,M45,M48,M51,M54,M57,M63,M66,M69,M72,M75,M78,M81,M87,M84)</f>
         <v>0.31189285714285708</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="1">
         <f t="shared" ref="AB9:AB10" si="4">AVERAGE(N3,N6,N9,N12,N15,N18,N21,N24,N27,N30,N33,N36,N39,N42,N45,N48,N51,N54,N57,N63,N66,N69,N72,N75,N78,N81,N87,N84)</f>
         <v>0.47067857142857145</v>
       </c>
@@ -14686,22 +15957,22 @@
         <f>baseline_MAR!N10-evasion_MAR!N10</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X10" s="22">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="20">
+      <c r="X10" s="18">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" si="1"/>
         <v>0.32317857142857143</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="1">
         <f t="shared" si="2"/>
         <v>0.54228571428571426</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="1">
         <f t="shared" si="3"/>
         <v>0.36221428571428554</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="1">
         <f t="shared" si="4"/>
         <v>0.50307142857142861</v>
       </c>
@@ -14765,10 +16036,10 @@
         <f>baseline_MAR!N11-evasion_MAR!N11</f>
         <v>-7.6000000000000012E-2</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="21"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14829,10 +16100,10 @@
         <f>baseline_MAR!N12-evasion_MAR!N12</f>
         <v>-0.11199999999999993</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="21"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -14893,10 +16164,10 @@
         <f>baseline_MAR!N13-evasion_MAR!N13</f>
         <v>-3.1000000000000028E-2</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="21"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -14957,10 +16228,10 @@
         <f>baseline_MAR!N14-evasion_MAR!N14</f>
         <v>-4.2000000000000037E-2</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="21"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -15021,10 +16292,10 @@
         <f>baseline_MAR!N15-evasion_MAR!N15</f>
         <v>-0.252</v>
       </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="21"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -15085,10 +16356,10 @@
         <f>baseline_MAR!N16-evasion_MAR!N16</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -15149,10 +16420,10 @@
         <f>baseline_MAR!N17-evasion_MAR!N17</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -15213,10 +16484,10 @@
         <f>baseline_MAR!N18-evasion_MAR!N18</f>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="21"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -15277,10 +16548,10 @@
         <f>baseline_MAR!N19-evasion_MAR!N19</f>
         <v>9.4000000000000028E-2</v>
       </c>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="21"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -19895,10 +21166,6 @@
         <f>baseline_MNAR!N7-evasion_MNAR!N7</f>
         <v>-1.2000000000000011E-2</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -19959,19 +21226,19 @@
         <f>baseline_MNAR!N8-evasion_MNAR!N8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AA8" s="19" t="s">
         <v>2093</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -20034,22 +21301,22 @@
         <f>baseline_MNAR!N9-evasion_MNAR!N9</f>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="X9" s="22">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="20">
+      <c r="X9" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="1">
         <f>AVERAGE(K3,K6,K9,K12,K15,K18,K21,K24,K27,K30,K33,K36,K39,K42,K45,K48,K51,K54,K57,K63,K66,K69,K72,K75,K78,K81,K87,K84)</f>
         <v>0.39053571428571426</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="1">
         <f>AVERAGE(L3,L6,L9,L12,L15,L18,L21,L24,L27,L30,L33,L36,L39,L42,L45,L48,L51,L54,L57,L63,L66,L69,L72,L75,L78,L81,L87,L84)</f>
         <v>0.35428571428571426</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="1">
         <f>AVERAGE(M3,M6,M9,M12,M15,M18,M21,M24,M27,M30,M33,M36,M39,M42,M45,M48,M51,M54,M57,M63,M66,M69,M72,M75,M78,M81,M87,M84)</f>
         <v>0.29864285714285721</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="1">
         <f>AVERAGE(N3,N6,N9,N12,N15,N18,N21,N24,N27,N30,N33,N36,N39,N42,N45,N48,N51,N54,N57,N63,N66,N69,N72,N75,N78,N81,N87,N84)</f>
         <v>0.47635714285714281</v>
       </c>
@@ -20113,22 +21380,22 @@
         <f>baseline_MNAR!N10-evasion_MNAR!N10</f>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="X10" s="22">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="20">
+      <c r="X10" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" ref="Y10:AB11" si="1">AVERAGE(K4,K7,K10,K13,K16,K19,K22,K25,K28,K31,K34,K37,K40,K43,K46,K49,K52,K55,K58,K64,K67,K70,K73,K76,K79,K82,K88,K85)</f>
         <v>0.43346428571428569</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="1">
         <f t="shared" si="1"/>
         <v>0.44085714285714289</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="1">
         <f t="shared" si="1"/>
         <v>0.29725000000000001</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="1">
         <f t="shared" si="1"/>
         <v>0.51000000000000012</v>
       </c>
@@ -20192,22 +21459,22 @@
         <f>baseline_MNAR!N11-evasion_MNAR!N11</f>
         <v>-6.800000000000006E-2</v>
       </c>
-      <c r="X11" s="22">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="20">
+      <c r="X11" s="18">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="1"/>
         <v>0.33400485008818348</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="1">
         <f t="shared" si="1"/>
         <v>0.33796208112874776</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="1">
         <f t="shared" si="1"/>
         <v>0.30646164021164018</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="1">
         <f t="shared" si="1"/>
         <v>0.42628174603174607</v>
       </c>
@@ -20271,10 +21538,10 @@
         <f>baseline_MNAR!N12-evasion_MNAR!N12</f>
         <v>-9.3999999999999972E-2</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="21"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -20335,10 +21602,10 @@
         <f>baseline_MNAR!N13-evasion_MNAR!N13</f>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="21"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -20399,10 +21666,10 @@
         <f>baseline_MNAR!N14-evasion_MNAR!N14</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="21"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -20463,10 +21730,10 @@
         <f>baseline_MNAR!N15-evasion_MNAR!N15</f>
         <v>0.22199999999999998</v>
       </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="21"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -20527,10 +21794,10 @@
         <f>baseline_MNAR!N16-evasion_MNAR!N16</f>
         <v>4.7999999999999932E-2</v>
       </c>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -20591,10 +21858,10 @@
         <f>baseline_MNAR!N17-evasion_MNAR!N17</f>
         <v>0.17700000000000005</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -20655,10 +21922,10 @@
         <f>baseline_MNAR!N18-evasion_MNAR!N18</f>
         <v>6.3E-2</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="21"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -20719,10 +21986,10 @@
         <f>baseline_MNAR!N19-evasion_MNAR!N19</f>
         <v>0.36</v>
       </c>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="21"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -24839,14 +26106,14 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="I91" s="17" t="s">
+      <c r="I91" s="22" t="s">
         <v>1424</v>
       </c>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17" t="s">
+      <c r="J91" s="22"/>
+      <c r="K91" s="22" t="s">
         <v>1425</v>
       </c>
-      <c r="L91" s="17"/>
+      <c r="L91" s="22"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="I92" s="9" t="s">
@@ -25382,10 +26649,6 @@
         <f>baseline_MAR!N6-poison_MAR!N6</f>
         <v>5.2000000000000046E-2</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -25444,19 +26707,19 @@
         <f>baseline_MAR!N7-poison_MAR!N7</f>
         <v>3.2999999999999974E-2</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA7" s="19" t="s">
         <v>2093</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -25519,22 +26782,22 @@
         <f>baseline_MAR!N8-poison_MAR!N8</f>
         <v>-8.500000000000002E-2</v>
       </c>
-      <c r="X8" s="22">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="20">
+      <c r="X8" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="1">
         <f>AVERAGE(K2,K5,K8,K11,K14,K17,K20,K23,K26,K29,K32,K35,K38,K41,K44,K47,K50,K53,K56,K62,K65,K68,K71,K74,K77,K80,K86,K83)</f>
         <v>0.16260714285714292</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="1">
         <f>AVERAGE(L2,L5,L8,L11,L14,L17,L20,L23,L26,L29,L32,L35,L38,L41,L44,L47,L50,L53,L56,L62,L65,L68,L71,L74,L77,L80,L86,L83)</f>
         <v>1.031857142857143</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="1">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17,M20,M23,M26,M29,M32,M35,M38,M41,M44,M47,M50,M53,M56,M62,M65,M68,M71,M74,M77,M80,M86,M83)</f>
         <v>0.21257142857142849</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="1">
         <f>AVERAGE(N2,N5,N8,N11,N14,N17,N20,N23,N26,N29,N32,N35,N38,N41,N44,N47,N50,N53,N56,N62,N65,N68,N71,N74,N77,N80,N86,N83)</f>
         <v>0.40275000000000011</v>
       </c>
@@ -25598,22 +26861,22 @@
         <f>baseline_MAR!N9-poison_MAR!N9</f>
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="X9" s="22">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="20">
+      <c r="X9" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" ref="Y9:AB10" si="1">AVERAGE(K3,K6,K9,K12,K15,K18,K21,K24,K27,K30,K33,K36,K39,K42,K45,K48,K51,K54,K57,K63,K66,K69,K72,K75,K78,K81,K87,K84)</f>
         <v>0.18860714285714281</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="1">
         <f t="shared" si="1"/>
         <v>0.19382142857142853</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="1">
         <f t="shared" si="1"/>
         <v>0.24524999999999994</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="1">
         <f t="shared" si="1"/>
         <v>0.40350000000000003</v>
       </c>
@@ -25677,22 +26940,22 @@
         <f>baseline_MAR!N10-poison_MAR!N10</f>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="X10" s="22">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="20">
+      <c r="X10" s="18">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" si="1"/>
         <v>0.59496428571428583</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="1">
         <f t="shared" si="1"/>
         <v>0.85988888888888892</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="1">
         <f t="shared" si="1"/>
         <v>0.65982142857142867</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="1">
         <f t="shared" si="1"/>
         <v>0.41349999999999998</v>
       </c>
@@ -25756,10 +27019,10 @@
         <f>baseline_MAR!N11-poison_MAR!N11</f>
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="26"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -25820,10 +27083,10 @@
         <f>baseline_MAR!N12-poison_MAR!N12</f>
         <v>-2.0999999999999963E-2</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="26"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -25884,10 +27147,10 @@
         <f>baseline_MAR!N13-poison_MAR!N13</f>
         <v>3.7999999999999978E-2</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="26"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -25948,10 +27211,10 @@
         <f>baseline_MAR!N14-poison_MAR!N14</f>
         <v>2.4999999999999967E-2</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="26"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -26012,10 +27275,10 @@
         <f>baseline_MAR!N15-poison_MAR!N15</f>
         <v>-0.13600000000000001</v>
       </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="26"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -26076,10 +27339,10 @@
         <f>baseline_MAR!N16-poison_MAR!N16</f>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="26"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -26140,10 +27403,10 @@
         <f>baseline_MAR!N17-poison_MAR!N17</f>
         <v>0.14899999999999997</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="26"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -26204,10 +27467,10 @@
         <f>baseline_MAR!N18-poison_MAR!N18</f>
         <v>0.15600000000000003</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="26"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -30877,10 +32140,6 @@
         <f>baseline_MNAR!N6-poison_MNAR!N6</f>
         <v>4.500000000000004E-2</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -30941,19 +32200,19 @@
         <f>baseline_MNAR!N7-poison_MNAR!N7</f>
         <v>-4.7000000000000042E-2</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA7" s="19" t="s">
         <v>2093</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31016,22 +32275,22 @@
         <f>baseline_MNAR!N8-poison_MNAR!N8</f>
         <v>-0.18599999999999994</v>
       </c>
-      <c r="X8" s="22">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="20">
+      <c r="X8" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="1">
         <f>AVERAGE(K2,K5,K8,K11,K14,K17,K20,K23,K26,K29,K32,K35,K38,K41,K44,K47,K50,K53,K56,K62,K65,K68,K71,K74,K77,K80,K86,K83)</f>
         <v>0.27353571428571427</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="1">
         <f>AVERAGE(L2,L5,L8,L11,L14,L17,L20,L23,L26,L29,L32,L35,L38,L41,L44,L47,L50,L53,L56,L62,L65,L68,L71,L74,L77,L80,L86,L83)</f>
         <v>0.29196428571428579</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="1">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17,M20,M23,M26,M29,M32,M35,M38,M41,M44,M47,M50,M53,M56,M62,M65,M68,M71,M74,M77,M80,M86,M83)</f>
         <v>0.25332142857142859</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="1">
         <f>AVERAGE(N2,N5,N8,N11,N14,N17,N20,N23,N26,N29,N32,N35,N38,N41,N44,N47,N50,N53,N56,N62,N65,N68,N71,N74,N77,N80,N86,N83)</f>
         <v>0.48914285714285705</v>
       </c>
@@ -31095,22 +32354,22 @@
         <f>baseline_MNAR!N9-poison_MNAR!N9</f>
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="X9" s="22">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="20">
+      <c r="X9" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" ref="Y9:AB10" si="1">AVERAGE(K3,K6,K9,K12,K15,K18,K21,K24,K27,K30,K33,K36,K39,K42,K45,K48,K51,K54,K57,K63,K66,K69,K72,K75,K78,K81,K87,K84)</f>
         <v>0.32657142857142857</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="1">
         <f t="shared" si="1"/>
         <v>0.29521428571428571</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="1">
         <f t="shared" si="1"/>
         <v>0.24075000000000002</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="1">
         <f t="shared" si="1"/>
         <v>0.51657142857142857</v>
       </c>
@@ -31174,22 +32433,22 @@
         <f>baseline_MNAR!N10-poison_MNAR!N10</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="X10" s="22">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="20">
+      <c r="X10" s="18">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" si="1"/>
         <v>0.37396428571428558</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="1">
         <f t="shared" si="1"/>
         <v>0.60064285714285703</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="1">
         <f t="shared" si="1"/>
         <v>0.2472857142857143</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="1">
         <f t="shared" si="1"/>
         <v>0.55171428571428571</v>
       </c>
@@ -31253,11 +32512,10 @@
         <f>baseline_MNAR!N11-poison_MNAR!N11</f>
         <v>-6.4000000000000057E-2</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="25"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -31318,11 +32576,10 @@
         <f>baseline_MNAR!N12-poison_MNAR!N12</f>
         <v>-7.2999999999999954E-2</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="25"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -31383,11 +32640,10 @@
         <f>baseline_MNAR!N13-poison_MNAR!N13</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="25"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -31448,11 +32704,10 @@
         <f>baseline_MNAR!N14-poison_MNAR!N14</f>
         <v>-1.1999999999999955E-2</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="25"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -31513,11 +32768,10 @@
         <f>baseline_MNAR!N15-poison_MNAR!N15</f>
         <v>-0.127</v>
       </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="25"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -31578,13 +32832,12 @@
         <f>baseline_MNAR!N16-poison_MNAR!N16</f>
         <v>-6.6000000000000059E-2</v>
       </c>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="25"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X16" s="18"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="20"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -31643,13 +32896,12 @@
         <f>baseline_MNAR!N17-poison_MNAR!N17</f>
         <v>6.9000000000000061E-2</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X17" s="18"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="20"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -31708,13 +32960,12 @@
         <f>baseline_MNAR!N18-poison_MNAR!N18</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="25"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X18" s="18"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="20"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -31774,7 +33025,7 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -31834,7 +33085,7 @@
         <v>-8.9999999999999969E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -31894,7 +33145,7 @@
         <v>3.499999999999992E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -31954,7 +33205,7 @@
         <v>5.7000000000000051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -32014,7 +33265,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -32074,7 +33325,7 @@
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -32134,7 +33385,7 @@
         <v>-3.3000000000000029E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -32194,7 +33445,7 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -32254,7 +33505,7 @@
         <v>-8.4999999999999964E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -32314,7 +33565,7 @@
         <v>-6.6000000000000059E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -32374,7 +33625,7 @@
         <v>-4.599999999999993E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -32434,7 +33685,7 @@
         <v>1.4000000000000012E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -32494,7 +33745,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -35960,50 +37211,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BF07C-9EBA-48F4-BE81-E82F1F8815A3}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="33" t="s">
         <v>2084</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>1424</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>1425</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>2083</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="G2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>1425</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>2083</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -36251,47 +37504,47 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="33" t="s">
         <v>2085</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>1425</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>2083</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="I10" s="30" t="s">
+      <c r="E10" s="23"/>
+      <c r="I10" s="31" t="s">
         <v>2092</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="29" t="s">
         <v>2091</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22" t="s">
         <v>2090</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="17"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
@@ -36307,7 +37560,7 @@
         <v>1423</v>
       </c>
       <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="9" t="s">
         <v>2088</v>
       </c>
@@ -36353,17 +37606,17 @@
         <f>poison_MAR!S89</f>
         <v>-0.12277011494252871</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="24" t="s">
         <v>1423</v>
       </c>
       <c r="J12" s="9">
         <v>5</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="21">
         <f>evasion_MAR!Y8</f>
         <v>0.25499999999999995</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="21">
         <f>poison_MAR!Y8</f>
         <v>0.16260714285714292</v>
       </c>
@@ -36412,15 +37665,15 @@
         <f>poison_MAR!T89</f>
         <v>-0.45787356321839079</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="9">
         <v>20</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="21">
         <f>evasion_MAR!Y9</f>
         <v>0.28667857142857139</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="21">
         <f>poison_MAR!Y9</f>
         <v>0.18860714285714281</v>
       </c>
@@ -36469,11 +37722,11 @@
         <f>poison_MAR!U89</f>
         <v>-0.11765517241379313</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="9">
         <v>40</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="21">
         <f>evasion_MAR!Y10</f>
         <v>0.32317857142857143</v>
       </c>
@@ -36501,7 +37754,7 @@
         <f>evasion_MAR!AB10</f>
         <v>0.50307142857142861</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="21">
         <f>poison_MAR!AB10</f>
         <v>0.41349999999999998</v>
       </c>
@@ -36526,7 +37779,7 @@
         <f>poison_MAR!V89</f>
         <v>1.486206896551724E-2</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="24" t="s">
         <v>1422</v>
       </c>
       <c r="J15" s="9">
@@ -36548,11 +37801,11 @@
         <f>poison_MNAR!Z8</f>
         <v>0.29196428571428579</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="21">
         <f>evasion_MNAR!AA9</f>
         <v>0.29864285714285721</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="21">
         <f>poison_MNAR!AA8</f>
         <v>0.25332142857142859</v>
       </c>
@@ -36566,7 +37819,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I16" s="28"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="9">
         <v>20</v>
       </c>
@@ -36586,11 +37839,11 @@
         <f>poison_MNAR!Z9</f>
         <v>0.29521428571428571</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="21">
         <f>evasion_MNAR!AA10</f>
         <v>0.29725000000000001</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="21">
         <f>poison_MNAR!AA9</f>
         <v>0.24075000000000002</v>
       </c>
@@ -36603,8 +37856,8 @@
         <v>0.51657142857142857</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I17" s="29"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I17" s="26"/>
       <c r="J17" s="9">
         <v>40</v>
       </c>
@@ -36624,11 +37877,11 @@
         <f>poison_MNAR!Z10</f>
         <v>0.60064285714285703</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="21">
         <f>evasion_MNAR!AA11</f>
         <v>0.30646164021164018</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="21">
         <f>poison_MNAR!AA10</f>
         <v>0.2472857142857143</v>
       </c>
@@ -36641,14 +37894,812 @@
         <v>0.55171428571428571</v>
       </c>
     </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="L23" s="27" t="s">
+        <v>2092</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>2091</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="23"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10">
+        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$4</f>
+        <v>0.138816140307054</v>
+      </c>
+      <c r="D25" s="10">
+        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$4</f>
+        <v>0.15882880235424851</v>
+      </c>
+      <c r="E25" s="10">
+        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$4</f>
+        <v>0.1381472965435685</v>
+      </c>
+      <c r="F25" s="10">
+        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$4</f>
+        <v>0.16018425063193484</v>
+      </c>
+      <c r="G25" s="10">
+        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$4</f>
+        <v>0.12214895563070541</v>
+      </c>
+      <c r="H25" s="10">
+        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$4</f>
+        <v>0.12876528219892244</v>
+      </c>
+      <c r="I25" s="10">
+        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$4</f>
+        <v>0.19221229510788376</v>
+      </c>
+      <c r="J25" s="10">
+        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$4</f>
+        <v>0.17670164905169594</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M25" s="9">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10">
+        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$4</f>
+        <v>0.89355737506584432</v>
+      </c>
+      <c r="O25" s="10">
+        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$4</f>
+        <v>0.89377923330454467</v>
+      </c>
+      <c r="P25" s="10">
+        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$4</f>
+        <v>0.88983653238271609</v>
+      </c>
+      <c r="Q25" s="10">
+        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$4</f>
+        <v>0.89437541176260371</v>
+      </c>
+      <c r="R25" s="10">
+        <f>'[13]cs_test_evasion_softimpute_MAR-'!$G$4</f>
+        <v>0.7677312183251026</v>
+      </c>
+      <c r="S25" s="10">
+        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$4</f>
+        <v>0.78056206975573206</v>
+      </c>
+      <c r="T25" s="10">
+        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$4</f>
+        <v>0.82775163934710716</v>
+      </c>
+      <c r="U25" s="10">
+        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$4</f>
+        <v>0.86685229886707893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="9">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
+        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$5</f>
+        <v>0.14033948542323654</v>
+      </c>
+      <c r="D26" s="10">
+        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$5</f>
+        <v>0.15820639571524439</v>
+      </c>
+      <c r="E26" s="10">
+        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$5</f>
+        <v>0.13994520698340251</v>
+      </c>
+      <c r="F26" s="10">
+        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$5</f>
+        <v>0.15956184399293066</v>
+      </c>
+      <c r="G26" s="10">
+        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$5</f>
+        <v>0.12362849113278009</v>
+      </c>
+      <c r="H26" s="10">
+        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$5</f>
+        <v>0.12833074686978332</v>
+      </c>
+      <c r="I26" s="10">
+        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$5</f>
+        <v>0.19067106946473025</v>
+      </c>
+      <c r="J26" s="10">
+        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$5</f>
+        <v>0.17578590138710759</v>
+      </c>
+      <c r="L26" s="25"/>
+      <c r="M26" s="9">
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$5</f>
+        <v>0.89197615546090603</v>
+      </c>
+      <c r="O26" s="10">
+        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$5</f>
+        <v>0.89164819380682769</v>
+      </c>
+      <c r="P26" s="10">
+        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$5</f>
+        <v>0.8875726269670785</v>
+      </c>
+      <c r="Q26" s="10">
+        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$5</f>
+        <v>0.8927445822805683</v>
+      </c>
+      <c r="R26" s="10">
+        <f>'[13]cs_test_evasion_softimpute_MAR-'!$G$5</f>
+        <v>0.764479108786008</v>
+      </c>
+      <c r="S26" s="10">
+        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$5</f>
+        <v>0.7781904553978326</v>
+      </c>
+      <c r="T26" s="10">
+        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$5</f>
+        <v>0.82270300214462766</v>
+      </c>
+      <c r="U26" s="10">
+        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$5</f>
+        <v>0.86336425795916638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="9">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$6</f>
+        <v>0.14095563156846475</v>
+      </c>
+      <c r="D27" s="10">
+        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$6</f>
+        <v>0.1593492329090089</v>
+      </c>
+      <c r="E27" s="10">
+        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$6</f>
+        <v>0.14072844614522823</v>
+      </c>
+      <c r="F27" s="10">
+        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$6</f>
+        <v>0.16076944282505551</v>
+      </c>
+      <c r="G27" s="10">
+        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$6</f>
+        <v>0.12438208683402491</v>
+      </c>
+      <c r="H27" s="10">
+        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$6</f>
+        <v>0.12886776620669899</v>
+      </c>
+      <c r="I27" s="10">
+        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$6</f>
+        <v>0.19350009189626557</v>
+      </c>
+      <c r="J27" s="10">
+        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$6</f>
+        <v>0.17874416142235811</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="9">
+        <v>40</v>
+      </c>
+      <c r="N27" s="10">
+        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$6</f>
+        <v>0.89070917326749033</v>
+      </c>
+      <c r="O27" s="10">
+        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$6</f>
+        <v>0.89049207590192014</v>
+      </c>
+      <c r="P27" s="10">
+        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$6</f>
+        <v>0.88621973266666698</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$6</f>
+        <v>0.89169718057222425</v>
+      </c>
+      <c r="R27" s="10">
+        <f>'[13]cs_test_evasion_softimpute_MAR-'!$G$6</f>
+        <v>0.76320240595061695</v>
+      </c>
+      <c r="S27" s="10">
+        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$6</f>
+        <v>0.7802045992486627</v>
+      </c>
+      <c r="T27" s="10">
+        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$6</f>
+        <v>0.81641490791735494</v>
+      </c>
+      <c r="U27" s="10">
+        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$6</f>
+        <v>0.85625331319998921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B28" s="9">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10">
+        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$4</f>
+        <v>0.13811238278008309</v>
+      </c>
+      <c r="D28" s="10">
+        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$4</f>
+        <v>0.1572457207733598</v>
+      </c>
+      <c r="E28" s="10">
+        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$4</f>
+        <v>0.13877949698755199</v>
+      </c>
+      <c r="F28" s="10">
+        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$4</f>
+        <v>0.15773797619641633</v>
+      </c>
+      <c r="G28" s="10">
+        <f>[16]ks_test_evasion_softimpute_MNAR!$G$4</f>
+        <v>0.12184630840248968</v>
+      </c>
+      <c r="H28" s="10">
+        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$4</f>
+        <v>0.12469749556032156</v>
+      </c>
+      <c r="I28" s="10">
+        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$4</f>
+        <v>0.17413182320746889</v>
+      </c>
+      <c r="J28" s="10">
+        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$4</f>
+        <v>0.17196866683844128</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M28" s="9">
+        <v>5</v>
+      </c>
+      <c r="N28" s="10">
+        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$4</f>
+        <v>0.88338770773662545</v>
+      </c>
+      <c r="O28" s="10">
+        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$4</f>
+        <v>0.8857391597247799</v>
+      </c>
+      <c r="P28" s="10">
+        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$4</f>
+        <v>0.8838959358971189</v>
+      </c>
+      <c r="Q28" s="10">
+        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$4</f>
+        <v>0.89168089249574889</v>
+      </c>
+      <c r="R28" s="10">
+        <f>[14]cs_test_evasion_softimpute_MNAR!$G$4</f>
+        <v>0.75581533086008224</v>
+      </c>
+      <c r="S28" s="10">
+        <f>'[30]cs_test_poison_softimpute_MNAR-'!$G$4</f>
+        <v>0.77261396826308959</v>
+      </c>
+      <c r="T28" s="10">
+        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$4</f>
+        <v>0.83029524495473284</v>
+      </c>
+      <c r="U28" s="10">
+        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$4</f>
+        <v>0.84405500384726406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="9">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10">
+        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$5</f>
+        <v>0.13920739155186732</v>
+      </c>
+      <c r="D29" s="10">
+        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$5</f>
+        <v>0.15706208547631534</v>
+      </c>
+      <c r="E29" s="10">
+        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$5</f>
+        <v>0.1405347754688798</v>
+      </c>
+      <c r="F29" s="10">
+        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$5</f>
+        <v>0.1574067938234392</v>
+      </c>
+      <c r="G29" s="10">
+        <f>[16]ks_test_evasion_softimpute_MNAR!$G$5</f>
+        <v>0.12284119667219921</v>
+      </c>
+      <c r="H29" s="10">
+        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$5</f>
+        <v>0.12515911317562298</v>
+      </c>
+      <c r="I29" s="10">
+        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$5</f>
+        <v>0.1732012999460581</v>
+      </c>
+      <c r="J29" s="10">
+        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$5</f>
+        <v>0.17103814357459185</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="9">
+        <v>20</v>
+      </c>
+      <c r="N29" s="10">
+        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$5</f>
+        <v>0.87331297303703714</v>
+      </c>
+      <c r="O29" s="10">
+        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$5</f>
+        <v>0.87725010321678809</v>
+      </c>
+      <c r="P29" s="10">
+        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$5</f>
+        <v>0.87597330798353878</v>
+      </c>
+      <c r="Q29" s="10">
+        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$5</f>
+        <v>0.88296336773423967</v>
+      </c>
+      <c r="R29" s="10">
+        <f>[14]cs_test_evasion_softimpute_MNAR!$G$5</f>
+        <v>0.75324530745267471</v>
+      </c>
+      <c r="S29" s="10">
+        <f>'[30]cs_test_poison_softimpute_MNAR-'!$G$5</f>
+        <v>0.7663435757070689</v>
+      </c>
+      <c r="T29" s="10">
+        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$5</f>
+        <v>0.82856499909876558</v>
+      </c>
+      <c r="U29" s="10">
+        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$5</f>
+        <v>0.83536887748863742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="9">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10">
+        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$6</f>
+        <v>0.14012663252697105</v>
+      </c>
+      <c r="D30" s="10">
+        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$6</f>
+        <v>0.15851478994296217</v>
+      </c>
+      <c r="E30" s="10">
+        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$6</f>
+        <v>0.14169865431120343</v>
+      </c>
+      <c r="F30" s="10">
+        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$6</f>
+        <v>0.15885485125772056</v>
+      </c>
+      <c r="G30" s="10">
+        <f>[16]ks_test_evasion_softimpute_MNAR!$G$6</f>
+        <v>0.12353885219917017</v>
+      </c>
+      <c r="H30" s="10">
+        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$6</f>
+        <v>0.12580456978188226</v>
+      </c>
+      <c r="I30" s="10">
+        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$6</f>
+        <v>0.17636792302489629</v>
+      </c>
+      <c r="J30" s="10">
+        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$6</f>
+        <v>0.17390966609666109</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="9">
+        <v>40</v>
+      </c>
+      <c r="N30" s="10">
+        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$6</f>
+        <v>0.86671814773662548</v>
+      </c>
+      <c r="O30" s="10">
+        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$6</f>
+        <v>0.87093971165916317</v>
+      </c>
+      <c r="P30" s="10">
+        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$6</f>
+        <v>0.87040665917283933</v>
+      </c>
+      <c r="Q30" s="10">
+        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$6</f>
+        <v>0.87809218831467106</v>
+      </c>
+      <c r="R30" s="10">
+        <f>[14]cs_test_evasion_softimpute_MNAR!$G$6</f>
+        <v>0.75089460733333313</v>
+      </c>
+      <c r="S30" s="10">
+        <f>'[30]cs_test_poison_softimpute_MNAR-'!$G$6</f>
+        <v>0.76461644833781939</v>
+      </c>
+      <c r="T30" s="10">
+        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$6</f>
+        <v>0.8286528173662554</v>
+      </c>
+      <c r="U30" s="10">
+        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$6</f>
+        <v>0.82763420242828611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="L32" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N32" s="35"/>
+      <c r="O32" s="34" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$2</f>
+        <v>0.14077607944490339</v>
+      </c>
+      <c r="C34" s="10">
+        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$2</f>
+        <v>0.14463646187052326</v>
+      </c>
+      <c r="D34" s="10">
+        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$2</f>
+        <v>0.14644455977371298</v>
+      </c>
+      <c r="E34" s="10">
+        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$2</f>
+        <v>0.15354956391578109</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="L34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="10">
+        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$2</f>
+        <v>0.71300157706310008</v>
+      </c>
+      <c r="N34" s="10">
+        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$2</f>
+        <v>0.87201938541015123</v>
+      </c>
+      <c r="O34" s="10">
+        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$2</f>
+        <v>0.75545853389956252</v>
+      </c>
+      <c r="P34" s="10">
+        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$2</f>
+        <v>0.86866549068313126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10">
+        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$2</f>
+        <v>0.1452143700509641</v>
+      </c>
+      <c r="C35" s="10">
+        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$2</f>
+        <v>0.15158490814325051</v>
+      </c>
+      <c r="D35" s="10">
+        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$2</f>
+        <v>0.15073587721988166</v>
+      </c>
+      <c r="E35" s="10">
+        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$2</f>
+        <v>0.1597154276275882</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="L35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="10">
+        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$2</f>
+        <v>0.80846269780932756</v>
+      </c>
+      <c r="N35" s="10">
+        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$2</f>
+        <v>0.8611514598010972</v>
+      </c>
+      <c r="O35" s="10">
+        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$2</f>
+        <v>0.82951253016371496</v>
+      </c>
+      <c r="P35" s="10">
+        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$2</f>
+        <v>0.8667129646293128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B36" s="10">
+        <f>[16]ks_test_evasion_softimpute_MNAR!$G$2</f>
+        <v>0.12890508114462795</v>
+      </c>
+      <c r="C36" s="10">
+        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$2</f>
+        <v>0.13308883053443518</v>
+      </c>
+      <c r="D36" s="10">
+        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$2</f>
+        <v>0.1296844147080243</v>
+      </c>
+      <c r="E36" s="10">
+        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$2</f>
+        <v>0.12994959475053555</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="L36" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="M36" s="10">
+        <f>[14]cs_test_evasion_softimpute_MNAR!$G$2</f>
+        <v>0.73918884994238687</v>
+      </c>
+      <c r="N36" s="10">
+        <f>'[13]cs_test_evasion_softimpute_MAR-'!$G$2</f>
+        <v>0.75913010158161831</v>
+      </c>
+      <c r="O36" s="10">
+        <f>'[30]cs_test_poison_softimpute_MNAR-'!$G$2</f>
+        <v>0.7516491245038579</v>
+      </c>
+      <c r="P36" s="10">
+        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$2</f>
+        <v>0.76150233791490396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="10">
+        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$2</f>
+        <v>0.16126181461019273</v>
+      </c>
+      <c r="C37" s="10">
+        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$2</f>
+        <v>0.19017876235537179</v>
+      </c>
+      <c r="D37" s="10">
+        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$2</f>
+        <v>0.16706760966801928</v>
+      </c>
+      <c r="E37" s="10">
+        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$2</f>
+        <v>0.17309274514516931</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="L37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="10">
+        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$2</f>
+        <v>0.7715291646584358</v>
+      </c>
+      <c r="N37" s="10">
+        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$2</f>
+        <v>0.73455277665564733</v>
+      </c>
+      <c r="O37" s="10">
+        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$2</f>
+        <v>0.69011100485307031</v>
+      </c>
+      <c r="P37" s="10">
+        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$2</f>
+        <v>0.76666859939798837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I39" s="37">
+        <f>I25-I28</f>
+        <v>1.8080471900414868E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I40" s="37">
+        <f t="shared" ref="I40:I41" si="0">I26-I29</f>
+        <v>1.7469769518672157E-2</v>
+      </c>
+      <c r="J40" s="37">
+        <f>AVERAGE(I39:I41)</f>
+        <v>1.7560803430152105E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I41" s="37">
+        <f t="shared" si="0"/>
+        <v>1.7132168871369285E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
+  <mergeCells count="39">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
@@ -36660,6 +38711,28 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Attacks/resultadosImputação.xlsx
+++ b/Attacks/resultadosImputação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mult-e\Desktop\@Codigos\MestradoCodigos\AdvML\Attacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D3246F-289D-492F-A588-C31D452F7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24A2D3-0D1C-46DE-ACAF-94CCD3F92071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="855" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_MAR" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="2101">
   <si>
     <t>Dataset</t>
   </si>
@@ -6367,6 +6367,18 @@
   </si>
   <si>
     <t>Imputation Method</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Adversarial attacks</t>
+  </si>
+  <si>
+    <t>Adversarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing </t>
   </si>
 </sst>
 </file>
@@ -6530,7 +6542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6589,7 +6601,39 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6625,14 +6669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6683,28 +6719,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_evasion_gain_MNAR-deter"/>
+      <sheetName val="ks_test_evasion_knn_MAR-correla"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.16126181461019273</v>
+            <v>0.14463646187052326</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.17413182320746889</v>
+            <v>0.138816140307054</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.1732012999460581</v>
+            <v>0.14033948542323654</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.17636792302489629</v>
+            <v>0.14095563156846475</v>
           </cell>
         </row>
       </sheetData>
@@ -6720,28 +6756,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_evasion_mice_MNAR-deter"/>
+      <sheetName val="cs_test_poison_knn_MAR-correlat"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.80846269780932756</v>
+            <v>0.86866549068313126</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.8838959358971189</v>
+            <v>0.89377923330454467</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.87597330798353878</v>
+            <v>0.89164819380682769</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.87040665917283933</v>
+            <v>0.89049207590192014</v>
           </cell>
         </row>
       </sheetData>
@@ -6757,28 +6793,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_evasion_mice_MAR-correl"/>
+      <sheetName val="cs_test_evasion_mice_MAR-correl"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.15158490814325051</v>
+            <v>0.8611514598010972</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.1381472965435685</v>
+            <v>0.88983653238271609</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.13994520698340251</v>
+            <v>0.8875726269670785</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.14072844614522823</v>
+            <v>0.88621973266666698</v>
           </cell>
         </row>
       </sheetData>
@@ -6794,28 +6830,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_evasion_mice_MNAR-deter"/>
+      <sheetName val="cs_test_poison_mice_MAR-correla"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.1452143700509641</v>
+            <v>0.8667129646293128</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.13877949698755199</v>
+            <v>0.89437541176260371</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.1405347754688798</v>
+            <v>0.8927445822805683</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.14169865431120343</v>
+            <v>0.89169718057222425</v>
           </cell>
         </row>
       </sheetData>
@@ -6868,28 +6904,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_evasion_softimpute_MNAR"/>
+      <sheetName val="cs_test_poison_softimpute_MAR-c"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.73918884994238687</v>
+            <v>0.76150233791490396</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.75581533086008224</v>
+            <v>0.78056206975573206</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.75324530745267471</v>
+            <v>0.7781904553978326</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.75089460733333313</v>
+            <v>0.7802045992486627</v>
           </cell>
         </row>
       </sheetData>
@@ -6905,28 +6941,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_evasion_softimpute_MAR-"/>
+      <sheetName val="cs_test_evasion_gain_MAR-correl"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.13308883053443518</v>
+            <v>0.73455277665564733</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.12214895563070541</v>
+            <v>0.82775163934710716</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.12362849113278009</v>
+            <v>0.82270300214462766</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.12438208683402491</v>
+            <v>0.81641490791735494</v>
           </cell>
         </row>
       </sheetData>
@@ -6936,6 +6972,228 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_gain_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.76666859939798837</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.86685229886707893</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.86336425795916638</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.85625331319998921</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_knn_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.14077607944490339</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.13811238278008309</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.13920739155186732</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14012663252697105</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_knn_MNAR-determi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.14644455977371298</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.1572457207733598</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15706208547631534</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.15851478994296217</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_mice_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.1452143700509641</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.13877949698755199</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.1405347754688798</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.14169865431120343</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_knn_MAR-correlat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.15354956391578109</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.15882880235424851</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15820639571524439</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.1593492329090089</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_mice_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.15073587721988166</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.15773797619641633</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.1574067938234392</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.15885485125772056</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -6972,35 +7230,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_poison_gain_MAR-correla"/>
+      <sheetName val="ks_test_poison_softimpute_MNAR-"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.76666859939798837</v>
+            <v>0.1296844147080243</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.86685229886707893</v>
+            <v>0.12469749556032156</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.86336425795916638</v>
+            <v>0.12515911317562298</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.85625331319998921</v>
+            <v>0.12580456978188226</v>
           </cell>
         </row>
       </sheetData>
@@ -7009,35 +7267,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_poison_gain_MNAR-determ"/>
+      <sheetName val="ks_test_evasion_gain_MNAR-deter"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.69011100485307031</v>
+            <v>0.16126181461019273</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.84405500384726406</v>
+            <v>0.17413182320746889</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.83536887748863742</v>
+            <v>0.1732012999460581</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.82763420242828611</v>
+            <v>0.17636792302489629</v>
           </cell>
         </row>
       </sheetData>
@@ -7046,81 +7304,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_poison_gain_MAR-correla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.17309274514516931</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.17670164905169594</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.17578590138710759</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.17874416142235811</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_evasion_gain_MAR-correl"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.19017876235537179</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.19221229510788376</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.19067106946473025</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.19350009189626557</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7157,35 +7341,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_poison_knn_MAR-correlat"/>
+      <sheetName val="cs_test_evasion_knn_MNAR-determ"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.86866549068313126</v>
+            <v>0.71300157706310008</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.89377923330454467</v>
+            <v>0.88338770773662545</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.89164819380682769</v>
+            <v>0.87331297303703714</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.89049207590192014</v>
+            <v>0.86671814773662548</v>
           </cell>
         </row>
       </sheetData>
@@ -7194,7 +7378,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7231,35 +7415,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_poison_knn_MAR-correlat"/>
+      <sheetName val="cs_test_evasion_mice_MNAR-deter"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.15354956391578109</v>
+            <v>0.80846269780932756</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.15882880235424851</v>
+            <v>0.8838959358971189</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.15820639571524439</v>
+            <v>0.87597330798353878</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.1593492329090089</v>
+            <v>0.87040665917283933</v>
           </cell>
         </row>
       </sheetData>
@@ -7268,81 +7452,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_poison_knn_MNAR-determi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.14644455977371298</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.1572457207733598</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.15706208547631534</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.15851478994296217</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="cs_test_poison_mice_MAR-correla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.8667129646293128</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.89437541176260371</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.8927445822805683</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.89169718057222425</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7379,80 +7489,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_poison_mice_MAR-correla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.1597154276275882</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.16018425063193484</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.15956184399293066</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.16076944282505551</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_poison_mice_MNAR-determ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.15073587721988166</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.15773797619641633</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.1574067938234392</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.15885485125772056</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7460,28 +7496,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_poison_softimpute_MAR-c"/>
+      <sheetName val="cs_test_evasion_softimpute_MNAR"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.76150233791490396</v>
+            <v>0.73918884994238687</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.78056206975573206</v>
+            <v>0.75581533086008224</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.7781904553978326</v>
+            <v>0.75324530745267471</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.7802045992486627</v>
+            <v>0.75089460733333313</v>
           </cell>
         </row>
       </sheetData>
@@ -7497,28 +7533,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_evasion_gain_MNAR-deter"/>
+      <sheetName val="ks_test_evasion_mice_MAR-correl"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.7715291646584358</v>
+            <v>0.15158490814325051</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.83029524495473284</v>
+            <v>0.1381472965435685</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.82856499909876558</v>
+            <v>0.13994520698340251</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.8286528173662554</v>
+            <v>0.14072844614522823</v>
           </cell>
         </row>
       </sheetData>
@@ -7571,6 +7607,154 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="cs_test_evasion_gain_MNAR-deter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.7715291646584358</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.83029524495473284</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.82856499909876558</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.8286528173662554</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="cs_test_poison_gain_MNAR-determ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.69011100485307031</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.84405500384726406</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.83536887748863742</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.82763420242828611</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_poison_mice_MAR-correla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.1597154276275882</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.16018425063193484</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.15956184399293066</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.16076944282505551</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ks_test_evasion_softimpute_MAR-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>0.13308883053443518</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.12214895563070541</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.12362849113278009</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.12438208683402491</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="ks_test_poison_softimpute_MAR-c"/>
     </sheetNames>
     <sheetDataSet>
@@ -7601,35 +7785,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ks_test_poison_softimpute_MNAR-"/>
+      <sheetName val="ks_test_evasion_gain_MAR-correl"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.1296844147080243</v>
+            <v>0.19017876235537179</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.12469749556032156</v>
+            <v>0.19221229510788376</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.12515911317562298</v>
+            <v>0.19067106946473025</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.12580456978188226</v>
+            <v>0.19350009189626557</v>
           </cell>
         </row>
       </sheetData>
@@ -7638,35 +7822,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="cs_test_evasion_gain_MAR-correl"/>
+      <sheetName val="ks_test_poison_gain_MAR-correla"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>0.73455277665564733</v>
+            <v>0.17309274514516931</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0.82775163934710716</v>
+            <v>0.17670164905169594</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0.82270300214462766</v>
+            <v>0.17578590138710759</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>0.81641490791735494</v>
+            <v>0.17874416142235811</v>
           </cell>
         </row>
       </sheetData>
@@ -7675,7 +7859,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7704,154 +7888,6 @@
         <row r="6">
           <cell r="G6">
             <v>0.89070917326749033</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="cs_test_evasion_knn_MNAR-determ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.71300157706310008</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.88338770773662545</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.87331297303703714</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.86671814773662548</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_evasion_knn_MAR-correla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.14463646187052326</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.138816140307054</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.14033948542323654</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.14095563156846475</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ks_test_evasion_knn_MNAR-determ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.14077607944490339</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.13811238278008309</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.13920739155186732</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.14012663252697105</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="cs_test_evasion_mice_MAR-correl"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>0.8611514598010972</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.88983653238271609</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.8875726269670785</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.88621973266666698</v>
           </cell>
         </row>
       </sheetData>
@@ -8123,10 +8159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8137,7 +8173,7 @@
     <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8212,8 +8248,12 @@
       <c r="N2" s="1">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.26569540229885064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8251,7 +8291,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8289,7 +8329,7 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8327,7 +8367,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8365,7 +8405,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -8403,7 +8443,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8441,7 +8481,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8479,7 +8519,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -8517,7 +8557,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8555,7 +8595,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -8593,7 +8633,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -8631,7 +8671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8669,7 +8709,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -8707,7 +8747,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11508,8 +11548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA3BA3-798C-4FA1-9381-EAEC41636555}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89:N89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11594,6 +11634,10 @@
       <c r="N2" s="1">
         <v>0.36699999999999999</v>
       </c>
+      <c r="P2">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.3455574712643677</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -15240,8 +15284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBE174C-3D11-46D6-BA67-600498935B3A}">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:AB10"/>
+    <sheetView topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16164,7 +16208,10 @@
         <f>baseline_MAR!N13-evasion_MAR!N13</f>
         <v>-3.1000000000000028E-2</v>
       </c>
-      <c r="X13" s="18"/>
+      <c r="X13" s="18">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.3628839285714282</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="17"/>
@@ -20681,8 +20728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35795A7-CC47-4EA3-BF42-E16DEA3E7AF6}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21666,7 +21713,10 @@
         <f>baseline_MNAR!N14-evasion_MNAR!N14</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="X14" s="18"/>
+      <c r="X14" s="18">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.3840446428571429</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="17"/>
@@ -26106,14 +26156,14 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="I91" s="22" t="s">
+      <c r="I91" s="28" t="s">
         <v>1424</v>
       </c>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22" t="s">
+      <c r="J91" s="28"/>
+      <c r="K91" s="28" t="s">
         <v>1425</v>
       </c>
-      <c r="L91" s="22"/>
+      <c r="L91" s="28"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="I92" s="9" t="s">
@@ -26221,8 +26271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B962B9D0-6C64-4B78-B163-1D27D8E8EB6E}">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:AB10"/>
+    <sheetView topLeftCell="H69" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27147,7 +27197,10 @@
         <f>baseline_MAR!N13-poison_MAR!N13</f>
         <v>3.7999999999999978E-2</v>
       </c>
-      <c r="X13" s="18"/>
+      <c r="X13" s="18">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.43781268011527374</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="20"/>
@@ -31720,8 +31773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DE5BB7-3E6A-491F-993C-E3BB09DCB921}">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="G69" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32640,7 +32693,10 @@
         <f>baseline_MNAR!N13-poison_MNAR!N13</f>
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="X13" s="18"/>
+      <c r="X13" s="18">
+        <f>AVERAGE(K2:N88)</f>
+        <v>0.36706609195402312</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="20"/>
@@ -37211,10 +37267,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BF07C-9EBA-48F4-BE81-E82F1F8815A3}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37226,37 +37282,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>2084</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
         <v>1424</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1425</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="G2" s="35"/>
+      <c r="K2" s="35" t="s">
         <v>1425</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -37504,47 +37560,47 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>2085</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="35" t="s">
         <v>1425</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="I10" s="31" t="s">
+      <c r="E10" s="35"/>
+      <c r="I10" s="43" t="s">
         <v>2092</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="28"/>
+      <c r="O10" s="28" t="s">
         <v>2090</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="22"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
@@ -37559,8 +37615,8 @@
       <c r="E11" s="12" t="s">
         <v>1423</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="9" t="s">
         <v>2088</v>
       </c>
@@ -37606,7 +37662,7 @@
         <f>poison_MAR!S89</f>
         <v>-0.12277011494252871</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="36" t="s">
         <v>1423</v>
       </c>
       <c r="J12" s="9">
@@ -37665,7 +37721,7 @@
         <f>poison_MAR!T89</f>
         <v>-0.45787356321839079</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="9">
         <v>20</v>
       </c>
@@ -37722,7 +37778,7 @@
         <f>poison_MAR!U89</f>
         <v>-0.11765517241379313</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="9">
         <v>40</v>
       </c>
@@ -37779,7 +37835,7 @@
         <f>poison_MAR!V89</f>
         <v>1.486206896551724E-2</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="36" t="s">
         <v>1422</v>
       </c>
       <c r="J15" s="9">
@@ -37819,7 +37875,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I16" s="25"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="9">
         <v>20</v>
       </c>
@@ -37857,7 +37913,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I17" s="26"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="9">
         <v>40</v>
       </c>
@@ -37903,54 +37959,54 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="39" t="s">
         <v>2092</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="35" t="s">
         <v>2090</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="L23" s="27" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="L23" s="39" t="s">
         <v>2092</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="41" t="s">
         <v>2091</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23" t="s">
+      <c r="O23" s="35"/>
+      <c r="P23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23" t="s">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35" t="s">
         <v>2090</v>
       </c>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="23"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="35"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="12" t="s">
         <v>2088</v>
       </c>
@@ -37975,8 +38031,8 @@
       <c r="J24" s="12" t="s">
         <v>2089</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="30"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="12" t="s">
         <v>2088</v>
       </c>
@@ -38003,64 +38059,64 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="36" t="s">
         <v>1423</v>
       </c>
       <c r="B25" s="9">
         <v>5</v>
       </c>
       <c r="C25" s="10">
-        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$4</f>
+        <f>'[1]ks_test_evasion_knn_MAR-correla'!$G$4</f>
         <v>0.138816140307054</v>
       </c>
       <c r="D25" s="10">
-        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$4</f>
+        <f>'[2]ks_test_poison_knn_MAR-correlat'!$G$4</f>
         <v>0.15882880235424851</v>
       </c>
       <c r="E25" s="10">
-        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$4</f>
+        <f>'[3]ks_test_evasion_mice_MAR-correl'!$G$4</f>
         <v>0.1381472965435685</v>
       </c>
       <c r="F25" s="10">
-        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$4</f>
+        <f>'[4]ks_test_poison_mice_MAR-correla'!$G$4</f>
         <v>0.16018425063193484</v>
       </c>
       <c r="G25" s="10">
-        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$4</f>
+        <f>'[5]ks_test_evasion_softimpute_MAR-'!$G$4</f>
         <v>0.12214895563070541</v>
       </c>
       <c r="H25" s="10">
-        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$4</f>
+        <f>'[6]ks_test_poison_softimpute_MAR-c'!$G$4</f>
         <v>0.12876528219892244</v>
       </c>
       <c r="I25" s="10">
-        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$4</f>
+        <f>'[7]ks_test_evasion_gain_MAR-correl'!$G$4</f>
         <v>0.19221229510788376</v>
       </c>
       <c r="J25" s="10">
-        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$4</f>
+        <f>'[8]ks_test_poison_gain_MAR-correla'!$G$4</f>
         <v>0.17670164905169594</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="36" t="s">
         <v>1423</v>
       </c>
       <c r="M25" s="9">
         <v>5</v>
       </c>
       <c r="N25" s="10">
-        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$4</f>
+        <f>'[9]cs_test_evasion_knn_MAR-correla'!$G$4</f>
         <v>0.89355737506584432</v>
       </c>
       <c r="O25" s="10">
-        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$4</f>
+        <f>'[10]cs_test_poison_knn_MAR-correlat'!$G$4</f>
         <v>0.89377923330454467</v>
       </c>
       <c r="P25" s="10">
-        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$4</f>
+        <f>'[11]cs_test_evasion_mice_MAR-correl'!$G$4</f>
         <v>0.88983653238271609</v>
       </c>
       <c r="Q25" s="10">
-        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$4</f>
+        <f>'[12]cs_test_poison_mice_MAR-correla'!$G$4</f>
         <v>0.89437541176260371</v>
       </c>
       <c r="R25" s="10">
@@ -38068,73 +38124,73 @@
         <v>0.7677312183251026</v>
       </c>
       <c r="S25" s="10">
-        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$4</f>
+        <f>'[14]cs_test_poison_softimpute_MAR-c'!$G$4</f>
         <v>0.78056206975573206</v>
       </c>
       <c r="T25" s="10">
-        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$4</f>
+        <f>'[15]cs_test_evasion_gain_MAR-correl'!$G$4</f>
         <v>0.82775163934710716</v>
       </c>
       <c r="U25" s="10">
-        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$4</f>
+        <f>'[16]cs_test_poison_gain_MAR-correla'!$G$4</f>
         <v>0.86685229886707893</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="9">
         <v>20</v>
       </c>
       <c r="C26" s="10">
-        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$5</f>
+        <f>'[1]ks_test_evasion_knn_MAR-correla'!$G$5</f>
         <v>0.14033948542323654</v>
       </c>
       <c r="D26" s="10">
-        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$5</f>
+        <f>'[2]ks_test_poison_knn_MAR-correlat'!$G$5</f>
         <v>0.15820639571524439</v>
       </c>
       <c r="E26" s="10">
-        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$5</f>
+        <f>'[3]ks_test_evasion_mice_MAR-correl'!$G$5</f>
         <v>0.13994520698340251</v>
       </c>
       <c r="F26" s="10">
-        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$5</f>
+        <f>'[4]ks_test_poison_mice_MAR-correla'!$G$5</f>
         <v>0.15956184399293066</v>
       </c>
       <c r="G26" s="10">
-        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$5</f>
+        <f>'[5]ks_test_evasion_softimpute_MAR-'!$G$5</f>
         <v>0.12362849113278009</v>
       </c>
       <c r="H26" s="10">
-        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$5</f>
+        <f>'[6]ks_test_poison_softimpute_MAR-c'!$G$5</f>
         <v>0.12833074686978332</v>
       </c>
       <c r="I26" s="10">
-        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$5</f>
+        <f>'[7]ks_test_evasion_gain_MAR-correl'!$G$5</f>
         <v>0.19067106946473025</v>
       </c>
       <c r="J26" s="10">
-        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$5</f>
+        <f>'[8]ks_test_poison_gain_MAR-correla'!$G$5</f>
         <v>0.17578590138710759</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="9">
         <v>20</v>
       </c>
       <c r="N26" s="10">
-        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$5</f>
+        <f>'[9]cs_test_evasion_knn_MAR-correla'!$G$5</f>
         <v>0.89197615546090603</v>
       </c>
       <c r="O26" s="10">
-        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$5</f>
+        <f>'[10]cs_test_poison_knn_MAR-correlat'!$G$5</f>
         <v>0.89164819380682769</v>
       </c>
       <c r="P26" s="10">
-        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$5</f>
+        <f>'[11]cs_test_evasion_mice_MAR-correl'!$G$5</f>
         <v>0.8875726269670785</v>
       </c>
       <c r="Q26" s="10">
-        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$5</f>
+        <f>'[12]cs_test_poison_mice_MAR-correla'!$G$5</f>
         <v>0.8927445822805683</v>
       </c>
       <c r="R26" s="10">
@@ -38142,73 +38198,73 @@
         <v>0.764479108786008</v>
       </c>
       <c r="S26" s="10">
-        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$5</f>
+        <f>'[14]cs_test_poison_softimpute_MAR-c'!$G$5</f>
         <v>0.7781904553978326</v>
       </c>
       <c r="T26" s="10">
-        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$5</f>
+        <f>'[15]cs_test_evasion_gain_MAR-correl'!$G$5</f>
         <v>0.82270300214462766</v>
       </c>
       <c r="U26" s="10">
-        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$5</f>
+        <f>'[16]cs_test_poison_gain_MAR-correla'!$G$5</f>
         <v>0.86336425795916638</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9">
         <v>40</v>
       </c>
       <c r="C27" s="10">
-        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$6</f>
+        <f>'[1]ks_test_evasion_knn_MAR-correla'!$G$6</f>
         <v>0.14095563156846475</v>
       </c>
       <c r="D27" s="10">
-        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$6</f>
+        <f>'[2]ks_test_poison_knn_MAR-correlat'!$G$6</f>
         <v>0.1593492329090089</v>
       </c>
       <c r="E27" s="10">
-        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$6</f>
+        <f>'[3]ks_test_evasion_mice_MAR-correl'!$G$6</f>
         <v>0.14072844614522823</v>
       </c>
       <c r="F27" s="10">
-        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$6</f>
+        <f>'[4]ks_test_poison_mice_MAR-correla'!$G$6</f>
         <v>0.16076944282505551</v>
       </c>
       <c r="G27" s="10">
-        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$6</f>
+        <f>'[5]ks_test_evasion_softimpute_MAR-'!$G$6</f>
         <v>0.12438208683402491</v>
       </c>
       <c r="H27" s="10">
-        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$6</f>
+        <f>'[6]ks_test_poison_softimpute_MAR-c'!$G$6</f>
         <v>0.12886776620669899</v>
       </c>
       <c r="I27" s="10">
-        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$6</f>
+        <f>'[7]ks_test_evasion_gain_MAR-correl'!$G$6</f>
         <v>0.19350009189626557</v>
       </c>
       <c r="J27" s="10">
-        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$6</f>
+        <f>'[8]ks_test_poison_gain_MAR-correla'!$G$6</f>
         <v>0.17874416142235811</v>
       </c>
-      <c r="L27" s="26"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="9">
         <v>40</v>
       </c>
       <c r="N27" s="10">
-        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$6</f>
+        <f>'[9]cs_test_evasion_knn_MAR-correla'!$G$6</f>
         <v>0.89070917326749033</v>
       </c>
       <c r="O27" s="10">
-        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$6</f>
+        <f>'[10]cs_test_poison_knn_MAR-correlat'!$G$6</f>
         <v>0.89049207590192014</v>
       </c>
       <c r="P27" s="10">
-        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$6</f>
+        <f>'[11]cs_test_evasion_mice_MAR-correl'!$G$6</f>
         <v>0.88621973266666698</v>
       </c>
       <c r="Q27" s="10">
-        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$6</f>
+        <f>'[12]cs_test_poison_mice_MAR-correla'!$G$6</f>
         <v>0.89169718057222425</v>
       </c>
       <c r="R27" s="10">
@@ -38216,81 +38272,81 @@
         <v>0.76320240595061695</v>
       </c>
       <c r="S27" s="10">
-        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$6</f>
+        <f>'[14]cs_test_poison_softimpute_MAR-c'!$G$6</f>
         <v>0.7802045992486627</v>
       </c>
       <c r="T27" s="10">
-        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$6</f>
+        <f>'[15]cs_test_evasion_gain_MAR-correl'!$G$6</f>
         <v>0.81641490791735494</v>
       </c>
       <c r="U27" s="10">
-        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$6</f>
+        <f>'[16]cs_test_poison_gain_MAR-correla'!$G$6</f>
         <v>0.85625331319998921</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="36" t="s">
         <v>1422</v>
       </c>
       <c r="B28" s="9">
         <v>5</v>
       </c>
       <c r="C28" s="10">
-        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$4</f>
+        <f>'[17]ks_test_evasion_knn_MNAR-determ'!$G$4</f>
         <v>0.13811238278008309</v>
       </c>
       <c r="D28" s="10">
-        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$4</f>
+        <f>'[18]ks_test_poison_knn_MNAR-determi'!$G$4</f>
         <v>0.1572457207733598</v>
       </c>
       <c r="E28" s="10">
-        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$4</f>
+        <f>'[19]ks_test_evasion_mice_MNAR-deter'!$G$4</f>
         <v>0.13877949698755199</v>
       </c>
       <c r="F28" s="10">
-        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$4</f>
+        <f>'[20]ks_test_poison_mice_MNAR-determ'!$G$4</f>
         <v>0.15773797619641633</v>
       </c>
       <c r="G28" s="10">
-        <f>[16]ks_test_evasion_softimpute_MNAR!$G$4</f>
+        <f>[21]ks_test_evasion_softimpute_MNAR!$G$4</f>
         <v>0.12184630840248968</v>
       </c>
       <c r="H28" s="10">
-        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$4</f>
+        <f>'[22]ks_test_poison_softimpute_MNAR-'!$G$4</f>
         <v>0.12469749556032156</v>
       </c>
       <c r="I28" s="10">
-        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$4</f>
+        <f>'[23]ks_test_evasion_gain_MNAR-deter'!$G$4</f>
         <v>0.17413182320746889</v>
       </c>
       <c r="J28" s="10">
-        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$4</f>
+        <f>'[24]ks_test_poison_gain_MNAR-determ'!$G$4</f>
         <v>0.17196866683844128</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="36" t="s">
         <v>1422</v>
       </c>
       <c r="M28" s="9">
         <v>5</v>
       </c>
       <c r="N28" s="10">
-        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$4</f>
+        <f>'[25]cs_test_evasion_knn_MNAR-determ'!$G$4</f>
         <v>0.88338770773662545</v>
       </c>
       <c r="O28" s="10">
-        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$4</f>
+        <f>'[26]cs_test_poison_knn_MNAR-determi'!$G$4</f>
         <v>0.8857391597247799</v>
       </c>
       <c r="P28" s="10">
-        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$4</f>
+        <f>'[27]cs_test_evasion_mice_MNAR-deter'!$G$4</f>
         <v>0.8838959358971189</v>
       </c>
       <c r="Q28" s="10">
-        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$4</f>
+        <f>'[28]cs_test_poison_mice_MNAR-determ'!$G$4</f>
         <v>0.89168089249574889</v>
       </c>
       <c r="R28" s="10">
-        <f>[14]cs_test_evasion_softimpute_MNAR!$G$4</f>
+        <f>[29]cs_test_evasion_softimpute_MNAR!$G$4</f>
         <v>0.75581533086008224</v>
       </c>
       <c r="S28" s="10">
@@ -38298,73 +38354,73 @@
         <v>0.77261396826308959</v>
       </c>
       <c r="T28" s="10">
-        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$4</f>
+        <f>'[31]cs_test_evasion_gain_MNAR-deter'!$G$4</f>
         <v>0.83029524495473284</v>
       </c>
       <c r="U28" s="10">
-        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$4</f>
+        <f>'[32]cs_test_poison_gain_MNAR-determ'!$G$4</f>
         <v>0.84405500384726406</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="9">
         <v>20</v>
       </c>
       <c r="C29" s="10">
-        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$5</f>
+        <f>'[17]ks_test_evasion_knn_MNAR-determ'!$G$5</f>
         <v>0.13920739155186732</v>
       </c>
       <c r="D29" s="10">
-        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$5</f>
+        <f>'[18]ks_test_poison_knn_MNAR-determi'!$G$5</f>
         <v>0.15706208547631534</v>
       </c>
       <c r="E29" s="10">
-        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$5</f>
+        <f>'[19]ks_test_evasion_mice_MNAR-deter'!$G$5</f>
         <v>0.1405347754688798</v>
       </c>
       <c r="F29" s="10">
-        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$5</f>
+        <f>'[20]ks_test_poison_mice_MNAR-determ'!$G$5</f>
         <v>0.1574067938234392</v>
       </c>
       <c r="G29" s="10">
-        <f>[16]ks_test_evasion_softimpute_MNAR!$G$5</f>
+        <f>[21]ks_test_evasion_softimpute_MNAR!$G$5</f>
         <v>0.12284119667219921</v>
       </c>
       <c r="H29" s="10">
-        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$5</f>
+        <f>'[22]ks_test_poison_softimpute_MNAR-'!$G$5</f>
         <v>0.12515911317562298</v>
       </c>
       <c r="I29" s="10">
-        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$5</f>
+        <f>'[23]ks_test_evasion_gain_MNAR-deter'!$G$5</f>
         <v>0.1732012999460581</v>
       </c>
       <c r="J29" s="10">
-        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$5</f>
+        <f>'[24]ks_test_poison_gain_MNAR-determ'!$G$5</f>
         <v>0.17103814357459185</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="9">
         <v>20</v>
       </c>
       <c r="N29" s="10">
-        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$5</f>
+        <f>'[25]cs_test_evasion_knn_MNAR-determ'!$G$5</f>
         <v>0.87331297303703714</v>
       </c>
       <c r="O29" s="10">
-        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$5</f>
+        <f>'[26]cs_test_poison_knn_MNAR-determi'!$G$5</f>
         <v>0.87725010321678809</v>
       </c>
       <c r="P29" s="10">
-        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$5</f>
+        <f>'[27]cs_test_evasion_mice_MNAR-deter'!$G$5</f>
         <v>0.87597330798353878</v>
       </c>
       <c r="Q29" s="10">
-        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$5</f>
+        <f>'[28]cs_test_poison_mice_MNAR-determ'!$G$5</f>
         <v>0.88296336773423967</v>
       </c>
       <c r="R29" s="10">
-        <f>[14]cs_test_evasion_softimpute_MNAR!$G$5</f>
+        <f>[29]cs_test_evasion_softimpute_MNAR!$G$5</f>
         <v>0.75324530745267471</v>
       </c>
       <c r="S29" s="10">
@@ -38372,73 +38428,73 @@
         <v>0.7663435757070689</v>
       </c>
       <c r="T29" s="10">
-        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$5</f>
+        <f>'[31]cs_test_evasion_gain_MNAR-deter'!$G$5</f>
         <v>0.82856499909876558</v>
       </c>
       <c r="U29" s="10">
-        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$5</f>
+        <f>'[32]cs_test_poison_gain_MNAR-determ'!$G$5</f>
         <v>0.83536887748863742</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9">
         <v>40</v>
       </c>
       <c r="C30" s="10">
-        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$6</f>
+        <f>'[17]ks_test_evasion_knn_MNAR-determ'!$G$6</f>
         <v>0.14012663252697105</v>
       </c>
       <c r="D30" s="10">
-        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$6</f>
+        <f>'[18]ks_test_poison_knn_MNAR-determi'!$G$6</f>
         <v>0.15851478994296217</v>
       </c>
       <c r="E30" s="10">
-        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$6</f>
+        <f>'[19]ks_test_evasion_mice_MNAR-deter'!$G$6</f>
         <v>0.14169865431120343</v>
       </c>
       <c r="F30" s="10">
-        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$6</f>
+        <f>'[20]ks_test_poison_mice_MNAR-determ'!$G$6</f>
         <v>0.15885485125772056</v>
       </c>
       <c r="G30" s="10">
-        <f>[16]ks_test_evasion_softimpute_MNAR!$G$6</f>
+        <f>[21]ks_test_evasion_softimpute_MNAR!$G$6</f>
         <v>0.12353885219917017</v>
       </c>
       <c r="H30" s="10">
-        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$6</f>
+        <f>'[22]ks_test_poison_softimpute_MNAR-'!$G$6</f>
         <v>0.12580456978188226</v>
       </c>
       <c r="I30" s="10">
-        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$6</f>
+        <f>'[23]ks_test_evasion_gain_MNAR-deter'!$G$6</f>
         <v>0.17636792302489629</v>
       </c>
       <c r="J30" s="10">
-        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$6</f>
+        <f>'[24]ks_test_poison_gain_MNAR-determ'!$G$6</f>
         <v>0.17390966609666109</v>
       </c>
-      <c r="L30" s="26"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="9">
         <v>40</v>
       </c>
       <c r="N30" s="10">
-        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$6</f>
+        <f>'[25]cs_test_evasion_knn_MNAR-determ'!$G$6</f>
         <v>0.86671814773662548</v>
       </c>
       <c r="O30" s="10">
-        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$6</f>
+        <f>'[26]cs_test_poison_knn_MNAR-determi'!$G$6</f>
         <v>0.87093971165916317</v>
       </c>
       <c r="P30" s="10">
-        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$6</f>
+        <f>'[27]cs_test_evasion_mice_MNAR-deter'!$G$6</f>
         <v>0.87040665917283933</v>
       </c>
       <c r="Q30" s="10">
-        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$6</f>
+        <f>'[28]cs_test_poison_mice_MNAR-determ'!$G$6</f>
         <v>0.87809218831467106</v>
       </c>
       <c r="R30" s="10">
-        <f>[14]cs_test_evasion_softimpute_MNAR!$G$6</f>
+        <f>[29]cs_test_evasion_softimpute_MNAR!$G$6</f>
         <v>0.75089460733333313</v>
       </c>
       <c r="S30" s="10">
@@ -38446,40 +38502,40 @@
         <v>0.76461644833781939</v>
       </c>
       <c r="T30" s="10">
-        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$6</f>
+        <f>'[31]cs_test_evasion_gain_MNAR-deter'!$G$6</f>
         <v>0.8286528173662554</v>
       </c>
       <c r="U30" s="10">
-        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$6</f>
+        <f>'[32]cs_test_poison_gain_MNAR-determ'!$G$6</f>
         <v>0.82763420242828611</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="35" t="s">
         <v>2096</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="35" t="s">
         <v>1425</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
         <v>2083</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="L32" s="23" t="s">
+      <c r="E32" s="35"/>
+      <c r="L32" s="35" t="s">
         <v>2096</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="31" t="s">
         <v>1425</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="34" t="s">
+      <c r="N32" s="32"/>
+      <c r="O32" s="31" t="s">
         <v>2083</v>
       </c>
-      <c r="P32" s="35"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
       <c r="B33" s="12" t="s">
         <v>1422</v>
       </c>
@@ -38492,7 +38548,7 @@
       <c r="E33" s="12" t="s">
         <v>1423</v>
       </c>
-      <c r="L33" s="23"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="12" t="s">
         <v>1422</v>
       </c>
@@ -38506,114 +38562,114 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="10">
-        <f>'[8]ks_test_evasion_knn_MNAR-determ'!$G$2</f>
+        <f>'[17]ks_test_evasion_knn_MNAR-determ'!$G$2</f>
         <v>0.14077607944490339</v>
       </c>
       <c r="C34" s="10">
-        <f>'[7]ks_test_evasion_knn_MAR-correla'!$G$2</f>
+        <f>'[1]ks_test_evasion_knn_MAR-correla'!$G$2</f>
         <v>0.14463646187052326</v>
       </c>
       <c r="D34" s="10">
-        <f>'[24]ks_test_poison_knn_MNAR-determi'!$G$2</f>
+        <f>'[18]ks_test_poison_knn_MNAR-determi'!$G$2</f>
         <v>0.14644455977371298</v>
       </c>
       <c r="E34" s="10">
-        <f>'[23]ks_test_poison_knn_MAR-correlat'!$G$2</f>
+        <f>'[2]ks_test_poison_knn_MAR-correlat'!$G$2</f>
         <v>0.15354956391578109</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="22"/>
       <c r="L34" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="10">
-        <f>'[6]cs_test_evasion_knn_MNAR-determ'!$G$2</f>
+        <f>'[25]cs_test_evasion_knn_MNAR-determ'!$G$2</f>
         <v>0.71300157706310008</v>
       </c>
       <c r="N34" s="10">
-        <f>'[5]cs_test_evasion_knn_MAR-correla'!$G$2</f>
+        <f>'[9]cs_test_evasion_knn_MAR-correla'!$G$2</f>
         <v>0.87201938541015123</v>
       </c>
       <c r="O34" s="10">
-        <f>'[22]cs_test_poison_knn_MNAR-determi'!$G$2</f>
+        <f>'[26]cs_test_poison_knn_MNAR-determi'!$G$2</f>
         <v>0.75545853389956252</v>
       </c>
       <c r="P34" s="10">
-        <f>'[21]cs_test_poison_knn_MAR-correlat'!$G$2</f>
+        <f>'[10]cs_test_poison_knn_MAR-correlat'!$G$2</f>
         <v>0.86866549068313126</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="10">
-        <f>'[12]ks_test_evasion_mice_MNAR-deter'!$G$2</f>
+        <f>'[19]ks_test_evasion_mice_MNAR-deter'!$G$2</f>
         <v>0.1452143700509641</v>
       </c>
       <c r="C35" s="10">
-        <f>'[11]ks_test_evasion_mice_MAR-correl'!$G$2</f>
+        <f>'[3]ks_test_evasion_mice_MAR-correl'!$G$2</f>
         <v>0.15158490814325051</v>
       </c>
       <c r="D35" s="10">
-        <f>'[28]ks_test_poison_mice_MNAR-determ'!$G$2</f>
+        <f>'[20]ks_test_poison_mice_MNAR-determ'!$G$2</f>
         <v>0.15073587721988166</v>
       </c>
       <c r="E35" s="10">
-        <f>'[27]ks_test_poison_mice_MAR-correla'!$G$2</f>
+        <f>'[4]ks_test_poison_mice_MAR-correla'!$G$2</f>
         <v>0.1597154276275882</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="22"/>
       <c r="L35" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="10">
-        <f>'[10]cs_test_evasion_mice_MNAR-deter'!$G$2</f>
+        <f>'[27]cs_test_evasion_mice_MNAR-deter'!$G$2</f>
         <v>0.80846269780932756</v>
       </c>
       <c r="N35" s="10">
-        <f>'[9]cs_test_evasion_mice_MAR-correl'!$G$2</f>
+        <f>'[11]cs_test_evasion_mice_MAR-correl'!$G$2</f>
         <v>0.8611514598010972</v>
       </c>
       <c r="O35" s="10">
-        <f>'[26]cs_test_poison_mice_MNAR-determ'!$G$2</f>
+        <f>'[28]cs_test_poison_mice_MNAR-determ'!$G$2</f>
         <v>0.82951253016371496</v>
       </c>
       <c r="P35" s="10">
-        <f>'[25]cs_test_poison_mice_MAR-correla'!$G$2</f>
+        <f>'[12]cs_test_poison_mice_MAR-correla'!$G$2</f>
         <v>0.8667129646293128</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>1421</v>
       </c>
       <c r="B36" s="10">
-        <f>[16]ks_test_evasion_softimpute_MNAR!$G$2</f>
+        <f>[21]ks_test_evasion_softimpute_MNAR!$G$2</f>
         <v>0.12890508114462795</v>
       </c>
       <c r="C36" s="10">
-        <f>'[15]ks_test_evasion_softimpute_MAR-'!$G$2</f>
+        <f>'[5]ks_test_evasion_softimpute_MAR-'!$G$2</f>
         <v>0.13308883053443518</v>
       </c>
       <c r="D36" s="10">
-        <f>'[32]ks_test_poison_softimpute_MNAR-'!$G$2</f>
+        <f>'[22]ks_test_poison_softimpute_MNAR-'!$G$2</f>
         <v>0.1296844147080243</v>
       </c>
       <c r="E36" s="10">
-        <f>'[31]ks_test_poison_softimpute_MAR-c'!$G$2</f>
+        <f>'[6]ks_test_poison_softimpute_MAR-c'!$G$2</f>
         <v>0.12994959475053555</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="22"/>
       <c r="L36" s="12" t="s">
         <v>1421</v>
       </c>
       <c r="M36" s="10">
-        <f>[14]cs_test_evasion_softimpute_MNAR!$G$2</f>
+        <f>[29]cs_test_evasion_softimpute_MNAR!$G$2</f>
         <v>0.73918884994238687</v>
       </c>
       <c r="N36" s="10">
@@ -38625,75 +38681,663 @@
         <v>0.7516491245038579</v>
       </c>
       <c r="P36" s="10">
-        <f>'[29]cs_test_poison_softimpute_MAR-c'!$G$2</f>
+        <f>'[14]cs_test_poison_softimpute_MAR-c'!$G$2</f>
         <v>0.76150233791490396</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="10">
-        <f>'[1]ks_test_evasion_gain_MNAR-deter'!$G$2</f>
+        <f>'[23]ks_test_evasion_gain_MNAR-deter'!$G$2</f>
         <v>0.16126181461019273</v>
       </c>
       <c r="C37" s="10">
-        <f>'[2]ks_test_evasion_gain_MAR-correl'!$G$2</f>
+        <f>'[7]ks_test_evasion_gain_MAR-correl'!$G$2</f>
         <v>0.19017876235537179</v>
       </c>
       <c r="D37" s="10">
-        <f>'[20]ks_test_poison_gain_MNAR-determ'!$G$2</f>
+        <f>'[24]ks_test_poison_gain_MNAR-determ'!$G$2</f>
         <v>0.16706760966801928</v>
       </c>
       <c r="E37" s="10">
-        <f>'[19]ks_test_poison_gain_MAR-correla'!$G$2</f>
+        <f>'[8]ks_test_poison_gain_MAR-correla'!$G$2</f>
         <v>0.17309274514516931</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="22"/>
       <c r="L37" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M37" s="10">
-        <f>'[3]cs_test_evasion_gain_MNAR-deter'!$G$2</f>
+        <f>'[31]cs_test_evasion_gain_MNAR-deter'!$G$2</f>
         <v>0.7715291646584358</v>
       </c>
       <c r="N37" s="10">
-        <f>'[4]cs_test_evasion_gain_MAR-correl'!$G$2</f>
+        <f>'[15]cs_test_evasion_gain_MAR-correl'!$G$2</f>
         <v>0.73455277665564733</v>
       </c>
       <c r="O37" s="10">
-        <f>'[18]cs_test_poison_gain_MNAR-determ'!$G$2</f>
+        <f>'[32]cs_test_poison_gain_MNAR-determ'!$G$2</f>
         <v>0.69011100485307031</v>
       </c>
       <c r="P37" s="10">
-        <f>'[17]cs_test_poison_gain_MAR-correla'!$G$2</f>
+        <f>'[16]cs_test_poison_gain_MAR-correla'!$G$2</f>
         <v>0.76666859939798837</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I39" s="37">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I39" s="23">
         <f>I25-I28</f>
         <v>1.8080471900414868E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I40" s="37">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I40" s="23">
         <f t="shared" ref="I40:I41" si="0">I26-I29</f>
         <v>1.7469769518672157E-2</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="23">
         <f>AVERAGE(I39:I41)</f>
         <v>1.7560803430152105E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I41" s="37">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I41" s="23">
         <f t="shared" si="0"/>
         <v>1.7132168871369285E-2</v>
       </c>
     </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="35"/>
+      <c r="B45" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B46" s="10">
+        <f>baseline_MNAR!P2</f>
+        <v>0.3455574712643677</v>
+      </c>
+      <c r="C46" s="10">
+        <f>baseline_MAR!P2</f>
+        <v>0.26569540229885064</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B47" s="10">
+        <f>evasion_MNAR!X14</f>
+        <v>0.3840446428571429</v>
+      </c>
+      <c r="C47" s="10">
+        <f>evasion_MAR!X13</f>
+        <v>0.3628839285714282</v>
+      </c>
+      <c r="D47" s="24">
+        <f>(B47-B46)/B46</f>
+        <v>0.11137704953087445</v>
+      </c>
+      <c r="E47" s="24">
+        <f>(C47-C46)/C46</f>
+        <v>0.36578926632407893</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="I47" s="8" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>2090</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B48" s="10">
+        <f>poison_MNAR!X13</f>
+        <v>0.36706609195402312</v>
+      </c>
+      <c r="C48" s="10">
+        <f>poison_MAR!X13</f>
+        <v>0.43781268011527374</v>
+      </c>
+      <c r="D48" s="24">
+        <f>(B48-B46)/B46</f>
+        <v>6.2243251783725195E-2</v>
+      </c>
+      <c r="E48" s="24">
+        <f>(C48-C46)/C46</f>
+        <v>0.64779923298344433</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="I48" s="29" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K48" s="27">
+        <v>5</v>
+      </c>
+      <c r="L48" s="26">
+        <v>0.25499999999999995</v>
+      </c>
+      <c r="M48" s="26">
+        <v>0.26903571428571432</v>
+      </c>
+      <c r="N48" s="26">
+        <v>0.28657142857142853</v>
+      </c>
+      <c r="O48" s="26">
+        <v>0.44303571428571431</v>
+      </c>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="27">
+        <v>20</v>
+      </c>
+      <c r="L49" s="26">
+        <v>0.28667857142857139</v>
+      </c>
+      <c r="M49" s="26">
+        <v>0.30096428571428568</v>
+      </c>
+      <c r="N49" s="26">
+        <v>0.31189285714285708</v>
+      </c>
+      <c r="O49" s="26">
+        <v>0.47067857142857145</v>
+      </c>
+      <c r="Q49" s="11"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="27">
+        <v>40</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0.32317857142857143</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.54228571428571426</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.36221428571428554</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.50307142857142861</v>
+      </c>
+      <c r="Q50" s="11"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I51" s="29"/>
+      <c r="J51" s="30" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K51" s="27">
+        <v>5</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0.39053571428571426</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.35428571428571426</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0.29864285714285721</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.47635714285714281</v>
+      </c>
+      <c r="Q51" s="11"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="27">
+        <v>20</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0.43346428571428569</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.44085714285714289</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0.29725000000000001</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0.51000000000000012</v>
+      </c>
+      <c r="Q52" s="11"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="27">
+        <v>40</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0.33400485008818348</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0.33796208112874776</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0.30646164021164018</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0.42628174603174607</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I54" s="30" t="s">
+        <v>2083</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K54" s="27">
+        <v>5</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0.16260714285714292</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1.031857142857143</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0.21257142857142849</v>
+      </c>
+      <c r="O54" s="11">
+        <v>0.40275000000000011</v>
+      </c>
+      <c r="Q54" s="11"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I55" s="30"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="27">
+        <v>20</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0.18860714285714281</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0.19382142857142853</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0.24524999999999994</v>
+      </c>
+      <c r="O55" s="11">
+        <v>0.40350000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I56" s="30"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="27">
+        <v>40</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0.59496428571428583</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0.85988888888888892</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0.65982142857142867</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0.41349999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I57" s="30"/>
+      <c r="J57" s="30" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K57" s="27">
+        <v>5</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0.27353571428571427</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0.29196428571428579</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0.25332142857142859</v>
+      </c>
+      <c r="O57" s="11">
+        <v>0.48914285714285705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="27">
+        <v>20</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0.32657142857142857</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0.29521428571428571</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0.24075000000000002</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0.51657142857142857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="27">
+        <v>40</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.37396428571428558</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0.60064285714285703</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0.2472857142857143</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0.55171428571428571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I61" s="8" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L61" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="25" t="s">
+        <v>2090</v>
+      </c>
+      <c r="O61" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I62" s="29"/>
+      <c r="J62" s="29" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K62" s="27">
+        <v>5</v>
+      </c>
+      <c r="L62" s="26">
+        <f t="shared" ref="L62:O64" si="1">AVERAGE(L48,L51)</f>
+        <v>0.32276785714285711</v>
+      </c>
+      <c r="M62" s="26">
+        <f t="shared" si="1"/>
+        <v>0.31166071428571429</v>
+      </c>
+      <c r="N62" s="26">
+        <f t="shared" si="1"/>
+        <v>0.29260714285714284</v>
+      </c>
+      <c r="O62" s="26">
+        <f t="shared" si="1"/>
+        <v>0.45969642857142856</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="27">
+        <v>20</v>
+      </c>
+      <c r="L63" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36007142857142854</v>
+      </c>
+      <c r="M63" s="26">
+        <f t="shared" si="1"/>
+        <v>0.37091071428571432</v>
+      </c>
+      <c r="N63" s="26">
+        <f t="shared" si="1"/>
+        <v>0.30457142857142855</v>
+      </c>
+      <c r="O63" s="26">
+        <f t="shared" si="1"/>
+        <v>0.49033928571428576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="27">
+        <v>40</v>
+      </c>
+      <c r="L64" s="26">
+        <f t="shared" si="1"/>
+        <v>0.32859171075837745</v>
+      </c>
+      <c r="M64" s="26">
+        <f t="shared" si="1"/>
+        <v>0.44012389770723104</v>
+      </c>
+      <c r="N64" s="26">
+        <f t="shared" si="1"/>
+        <v>0.33433796296296286</v>
+      </c>
+      <c r="O64" s="26">
+        <f t="shared" si="1"/>
+        <v>0.46467658730158734</v>
+      </c>
+    </row>
+    <row r="65" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I65" s="29"/>
+      <c r="J65" s="30" t="s">
+        <v>2083</v>
+      </c>
+      <c r="K65" s="27">
+        <v>5</v>
+      </c>
+      <c r="L65" s="11">
+        <f t="shared" ref="L65:O67" si="2">AVERAGE(L54,L57)</f>
+        <v>0.21807142857142858</v>
+      </c>
+      <c r="M65" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66191071428571435</v>
+      </c>
+      <c r="N65" s="11">
+        <f t="shared" si="2"/>
+        <v>0.23294642857142855</v>
+      </c>
+      <c r="O65" s="11">
+        <f t="shared" si="2"/>
+        <v>0.44594642857142858</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I66" s="29"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="27">
+        <v>20</v>
+      </c>
+      <c r="L66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.25758928571428569</v>
+      </c>
+      <c r="M66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.24451785714285712</v>
+      </c>
+      <c r="N66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="O66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.46003571428571433</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="27">
+        <v>40</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="2"/>
+        <v>0.48446428571428568</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" si="2"/>
+        <v>0.73026587301587298</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" si="2"/>
+        <v>0.4535535714285715</v>
+      </c>
+      <c r="O67" s="11">
+        <f t="shared" si="2"/>
+        <v>0.48260714285714285</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I68" s="30"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I69" s="30"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I70" s="30"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="55">
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
@@ -38711,12 +39355,20 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="L25:L27"/>
     <mergeCell ref="L28:L30"/>
@@ -38729,10 +39381,18 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="I54:I59"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="I68:I73"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J73"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
